--- a/PRACA2_/CSV/Basics.xlsx
+++ b/PRACA2_/CSV/Basics.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maciek\Desktop\PRACA2_\CSV\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6480CB73-59A9-4B1D-900D-D32D197D1749}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86C29920-881D-47E2-9086-8AF13DAA4A62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{8286F9EE-5DC6-4896-BCB4-AF87244E99B2}"/>
   </bookViews>
@@ -400,7 +400,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -418,13 +418,13 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
